--- a/0_appendix/labeling/group_egestion_tube_IDs.xlsx
+++ b/0_appendix/labeling/group_egestion_tube_IDs.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t xml:space="preserve">E-T1-G1</t>
   </si>
@@ -312,6 +312,36 @@
   </si>
   <si>
     <t xml:space="preserve">E-T5-G100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-T1-G101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-T1-G102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-T2-G103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-T2-G104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-T3-G105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-T3-G106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-T4-G107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-T4-G108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-T5-G109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-T5-G110</t>
   </si>
 </sst>
 </file>
@@ -1143,6 +1173,56 @@
         <v>99</v>
       </c>
     </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
